--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646277.704621531</v>
+        <v>651410.5567115275</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167287.16146241</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3809475.954677903</v>
+        <v>2610015.581521715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7226411.894781332</v>
+        <v>7739255.098404761</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>347.6088837131874</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>22.81031192771947</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>169.6356194967397</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.25402641018488</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.29043622055724</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>89.72342716134042</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>19.53872709080458</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1136,22 +1138,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>107.746154049969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>336.9055644677748</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>121.5111845092794</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>4.853915579224545</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>109.5049367443083</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>289.5361878481296</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>25.13775189891262</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>322.3109323482374</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2005,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>144.8251079850181</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>121.2482518332236</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,13 +2052,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>253.6542084583247</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>129.4018751502026</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2722,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4491387262516</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>204.8619725885616</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>146.3034971231914</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>260.4446813871633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3433,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>134.6953597735377</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>84.452814744562</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>121.5810861820461</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>106.858786719141</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>98.04804098138851</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>112.1624125910794</v>
       </c>
       <c r="D44" t="n">
-        <v>383.9710959809307</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>60.15466974967018</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>26.71692503560836</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.502004395694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="C2" t="n">
-        <v>1668.502004395694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D2" t="n">
-        <v>1645.461285276786</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E2" t="n">
-        <v>1219.484345424644</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
-        <v>794.3601636140438</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>390.0211012034924</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>92.15272267752728</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>163.7891548361981</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>163.7891548361981</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>163.7891548361981</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>163.7891548361981</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>872.3303161710544</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1580.871477505911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2289.150756663838</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2758.425276923065</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2758.425276923065</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2500.070367519477</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>2500.070367519477</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>2500.070367519477</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.350368687225</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.350368687225</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1621.22843150087</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.722528018375</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>1399.88256953366</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>1295.180635806597</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.534805489501</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>1107.481033707105</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>1054.104940469414</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>1054.104940469414</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>1054.104940469414</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>1054.104940469414</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>1690.105932852289</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>1690.105932852289</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>2398.647094187145</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O3" t="n">
-        <v>2398.647094187145</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.647094187145</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2862.792571049924</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2862.792571049924</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2781.468323611179</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2639.588387908857</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>2454.820191828494</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>2249.84705296776</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>2053.325675800977</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1889.84832956764</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1750.155440920932</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.6745464764198</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>516.7019833553358</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D4" t="n">
-        <v>353.3852104821065</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>328.8861939061621</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>157.0244196807225</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>157.0244196807225</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>157.0244196807225</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2237.668878834127</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1994.329531060027</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1714.145082560331</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1432.43361516836</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1157.581211340873</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>915.0173147866777</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.6745464764198</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1649.343952472909</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.443222486209</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D5" t="n">
-        <v>799.1506016712092</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="E5" t="n">
-        <v>759.463292357515</v>
+        <v>135.1279494546419</v>
       </c>
       <c r="F5" t="n">
-        <v>759.463292357515</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>355.1242299469637</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>57.25585142099849</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>57.25585142099849</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>737.1690870453554</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.710248380212</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>2154.251409715068</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2862.792571049924</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2862.792571049924</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2466.401221350271</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2054.681222518018</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1649.343952472909</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.6857164410849</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>57.25585142099849</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>765.7970127558548</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>1157.402320666652</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1157.402320666652</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1157.402320666652</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1060.404493656021</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>888.431930534937</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>725.1151576617077</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>558.9069518145612</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>387.0451775891216</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>220.7882078833538</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>76.99193939150817</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2237.668878834127</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2237.668878834127</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1994.329531060027</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1994.329531060027</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1994.329531060027</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1719.477127232539</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1476.913230678345</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1250.570462368087</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1673.734793052391</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C8" t="n">
-        <v>1246.834063065691</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D8" t="n">
-        <v>823.5414422506913</v>
+        <v>1250.290449051318</v>
       </c>
       <c r="E8" t="n">
-        <v>397.5645023985488</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="F8" t="n">
-        <v>57.25585142099849</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
-        <v>57.25585142099849</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>57.25585142099849</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L8" t="n">
-        <v>765.7970127558548</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M8" t="n">
-        <v>1474.338174090711</v>
+        <v>2807.03592099776</v>
       </c>
       <c r="N8" t="n">
-        <v>2182.879335425568</v>
+        <v>2807.03592099776</v>
       </c>
       <c r="O8" t="n">
-        <v>2862.792571049924</v>
+        <v>3652.180571148572</v>
       </c>
       <c r="P8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>2505.303156176174</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>2505.303156176174</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X8" t="n">
-        <v>2093.583157343921</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y8" t="n">
-        <v>2093.583157343921</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>647.7407779893381</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>1356.281939324194</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>1865.943482001508</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N9" t="n">
-        <v>1865.943482001508</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1140.436973945235</v>
+        <v>311.2882625557938</v>
       </c>
       <c r="C10" t="n">
-        <v>968.4644108241513</v>
+        <v>139.3156994347098</v>
       </c>
       <c r="D10" t="n">
-        <v>805.147637950922</v>
+        <v>87.20919700613</v>
       </c>
       <c r="E10" t="n">
-        <v>638.9394321037755</v>
+        <v>87.20919700613</v>
       </c>
       <c r="F10" t="n">
-        <v>467.077657878336</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G10" t="n">
-        <v>300.8206881725681</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2237.668878834127</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S10" t="n">
-        <v>2237.668878834127</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T10" t="n">
-        <v>2237.668878834127</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U10" t="n">
-        <v>2237.668878834127</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V10" t="n">
-        <v>2074.362011349241</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W10" t="n">
-        <v>1799.509607521754</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X10" t="n">
-        <v>1556.945710967559</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y10" t="n">
-        <v>1330.602942657301</v>
+        <v>501.4542312678594</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1362.953022216585</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C11" t="n">
-        <v>936.0522922298856</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D11" t="n">
-        <v>512.7596714148858</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E11" t="n">
-        <v>512.7596714148858</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F11" t="n">
-        <v>512.7596714148858</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G11" t="n">
-        <v>390.0211012034924</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H11" t="n">
-        <v>92.15272267752728</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="L11" t="n">
-        <v>57.25585142099849</v>
+        <v>1346.664340074519</v>
       </c>
       <c r="M11" t="n">
-        <v>281.3454897181009</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="N11" t="n">
-        <v>989.8866510529572</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O11" t="n">
-        <v>1698.427812387813</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P11" t="n">
-        <v>2406.707091545741</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>2758.425276923065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>2537.499705967698</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>2537.499705967698</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V11" t="n">
-        <v>2180.010291093948</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W11" t="n">
-        <v>2180.010291093948</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X11" t="n">
-        <v>1768.290292261695</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y11" t="n">
-        <v>1362.953022216585</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M12" t="n">
-        <v>765.7970127558548</v>
+        <v>816.6830146357811</v>
       </c>
       <c r="N12" t="n">
-        <v>1474.338174090711</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.5008856827279</v>
+        <v>311.2882625557938</v>
       </c>
       <c r="C13" t="n">
-        <v>471.5008856827279</v>
+        <v>139.3156994347098</v>
       </c>
       <c r="D13" t="n">
-        <v>471.5008856827279</v>
+        <v>87.20919700613</v>
       </c>
       <c r="E13" t="n">
-        <v>471.5008856827279</v>
+        <v>87.20919700613</v>
       </c>
       <c r="F13" t="n">
-        <v>467.077657878336</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>300.8206881725681</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2190.6302655213</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.495218040435</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T13" t="n">
-        <v>1777.155870266335</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.971421766639</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V13" t="n">
-        <v>1215.259954374668</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W13" t="n">
-        <v>940.4075505471808</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X13" t="n">
-        <v>697.8436539929859</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5008856827279</v>
+        <v>501.4542312678594</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1625.886937881032</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C14" t="n">
-        <v>1198.986207894332</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="D14" t="n">
-        <v>775.6935870793325</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E14" t="n">
-        <v>349.71664722719</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F14" t="n">
-        <v>57.25585142099849</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>57.25585142099849</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H14" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>57.25585142099849</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>765.7970127558548</v>
+        <v>1534.778040249929</v>
       </c>
       <c r="M14" t="n">
-        <v>1474.338174090711</v>
+        <v>2539.064141668987</v>
       </c>
       <c r="N14" t="n">
-        <v>2182.879335425568</v>
+        <v>3515.315200155688</v>
       </c>
       <c r="O14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V14" t="n">
-        <v>2862.792571049924</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.792571049924</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X14" t="n">
-        <v>2451.072572217672</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.735302172562</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L15" t="n">
-        <v>57.25585142099849</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="M15" t="n">
-        <v>448.8611593317958</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.402320666652</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.5008856827279</v>
+        <v>1051.985719623282</v>
       </c>
       <c r="C16" t="n">
-        <v>471.5008856827279</v>
+        <v>880.0131565021975</v>
       </c>
       <c r="D16" t="n">
-        <v>471.5008856827279</v>
+        <v>716.6963836289682</v>
       </c>
       <c r="E16" t="n">
-        <v>471.5008856827279</v>
+        <v>550.4881777818217</v>
       </c>
       <c r="F16" t="n">
-        <v>467.077657878336</v>
+        <v>378.6264035563821</v>
       </c>
       <c r="G16" t="n">
-        <v>300.8206881725681</v>
+        <v>212.3694338506143</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2020.495218040435</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T16" t="n">
-        <v>1777.155870266335</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>1496.971421766639</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V16" t="n">
-        <v>1215.259954374668</v>
+        <v>1985.910757027287</v>
       </c>
       <c r="W16" t="n">
-        <v>940.4075505471808</v>
+        <v>1711.0583531998</v>
       </c>
       <c r="X16" t="n">
-        <v>697.8436539929859</v>
+        <v>1468.494456645605</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5008856827279</v>
+        <v>1242.151688335347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>794.3601636140438</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>794.3601636140438</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>794.3601636140438</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>794.3601636140438</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>794.3601636140438</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>390.0211012034924</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>92.15272267752728</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>57.25585142099849</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>57.25585142099849</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>765.7970127558548</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1474.338174090711</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2182.879335425568</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>2862.792571049924</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2862.792571049924</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>2862.792571049924</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>2758.425276923065</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>2537.499705967698</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>2279.14479656411</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>1921.655381690359</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>1525.264031990706</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>1199.697433659153</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>794.3601636140438</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>624.3793424524537</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>506.8734389699584</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>403.0334804852435</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>298.3315467581807</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6857164410849</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>110.6319446586889</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>57.25585142099849</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>765.7970127558548</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.338174090711</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1474.338174090711</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1783.924171916805</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1784.619234562763</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1642.739298860441</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1457.971102780078</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1252.997963919344</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1056.476586752561</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>892.999240519224</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3063518725164</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>451.4699644515273</v>
+        <v>849.9055752292884</v>
       </c>
       <c r="C19" t="n">
-        <v>279.4974013304434</v>
+        <v>677.9330121082044</v>
       </c>
       <c r="D19" t="n">
-        <v>279.4974013304434</v>
+        <v>514.6162392349751</v>
       </c>
       <c r="E19" t="n">
-        <v>279.4974013304434</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F19" t="n">
-        <v>279.4974013304434</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>279.4974013304434</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0244196807225</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>114.7471796451565</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>341.2747808509937</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>695.9641021454145</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1087.149897115665</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1464.641407991701</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1820.069536671464</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2110.668748593365</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2190.6302655213</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2190.6302655213</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1947.2909177472</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.106469247504</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.395001855533</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>1110.542598028046</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="X19" t="n">
-        <v>867.9787014738509</v>
+        <v>1266.414312251612</v>
       </c>
       <c r="Y19" t="n">
-        <v>641.635933163593</v>
+        <v>1040.071543941354</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,34 +5755,34 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5838,16 +5840,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>806.1502575345799</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>806.1502575345799</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>642.8334846613506</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>642.8334846613506</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4897.962009497735</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4897.962009497735</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4897.962009497735</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="26">
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.8534934449018</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
         <v>412.355951603442</v>
@@ -6412,22 +6414,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2167.110550186379</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1886.926101686684</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V28" t="n">
-        <v>1605.214634294712</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W28" t="n">
-        <v>1330.362230467225</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X28" t="n">
-        <v>1330.362230467225</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.019462156967</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6540,13 +6542,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
         <v>821.6753975134684</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>4920.315746753155</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.315149158289</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3918.135197142812</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3746.162634021728</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>3582.845861148498</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.637655301352</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>4852.060234546818</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W34" t="n">
-        <v>4577.207830719331</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>4334.643934165136</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>4108.301165854878</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.529878172021</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>3306.448039710919</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>3934.79247639015</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2197.745676910643</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>366.6855125151251</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K41" t="n">
-        <v>1082.193820490624</v>
+        <v>605.152992630652</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.818868109901</v>
+        <v>1534.778040249929</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2539.064141668987</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>3515.315200155688</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2617.594041202173</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L42" t="n">
-        <v>1446.844867123559</v>
+        <v>1514.492931657376</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.844867123559</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1829.666096547593</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1687.786160845271</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1503.017964764908</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1298.044825904174</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1101.523448737391</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>311.2882625557938</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>139.3156994347098</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>87.20919700613</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>87.20919700613</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>501.4542312678594</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>872.0061733076284</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C44" t="n">
-        <v>445.1054433209285</v>
+        <v>1672.730311824775</v>
       </c>
       <c r="D44" t="n">
-        <v>57.25585142099849</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="E44" t="n">
-        <v>57.25585142099849</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F44" t="n">
-        <v>57.25585142099849</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G44" t="n">
-        <v>57.25585142099849</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H44" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>419.859310237894</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>1128.40047157275</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>1445.97213055714</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.97213055714</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N44" t="n">
-        <v>2154.513291891997</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O44" t="n">
-        <v>2154.513291891997</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P44" t="n">
-        <v>2862.792571049924</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T44" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U44" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V44" t="n">
-        <v>2505.303156176174</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W44" t="n">
-        <v>2108.911806476521</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.191807644268</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1291.854537599158</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>57.25585142099849</v>
+        <v>375.7648127478153</v>
       </c>
       <c r="L45" t="n">
-        <v>765.7970127558548</v>
+        <v>375.7648127478153</v>
       </c>
       <c r="M45" t="n">
-        <v>765.7970127558548</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="N45" t="n">
-        <v>765.7970127558548</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O45" t="n">
-        <v>1474.338174090711</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.943482001508</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.4586091864599</v>
+        <v>867.852133775252</v>
       </c>
       <c r="C46" t="n">
-        <v>845.6963165100253</v>
+        <v>695.879570654168</v>
       </c>
       <c r="D46" t="n">
-        <v>682.379543636796</v>
+        <v>695.879570654168</v>
       </c>
       <c r="E46" t="n">
-        <v>682.379543636796</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F46" t="n">
-        <v>682.379543636796</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G46" t="n">
-        <v>682.379543636796</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H46" t="n">
-        <v>682.379543636796</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I46" t="n">
-        <v>682.379543636796</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>739.870871860954</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>966.3984730667912</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>1321.087794361212</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1712.273589331463</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>2089.765100207499</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>2445.193228887262</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2735.792440809163</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2862.792571049924</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2815.753957737098</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S46" t="n">
-        <v>2645.618910256233</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T46" t="n">
-        <v>2402.279562482132</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U46" t="n">
-        <v>2122.095113982436</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.383646590465</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="W46" t="n">
-        <v>1565.531242762978</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.967346208784</v>
+        <v>1284.360870797576</v>
       </c>
       <c r="Y46" t="n">
-        <v>1096.624577898526</v>
+        <v>1058.018102487318</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.0293568746771</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N2" t="n">
-        <v>752.9777655969272</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>753.0891021185053</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>664.9403315454158</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>725.0930885178318</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>753.1294056619129</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>752.9777655969272</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>753.0891021185053</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
-        <v>738.2132294767107</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>418.6576975939414</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>737.4689839673098</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>753.1294056619129</v>
+        <v>756.713999848885</v>
       </c>
       <c r="N8" t="n">
-        <v>752.9777655969272</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,19 +8534,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>537.9064195803219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>944.2228346058481</v>
       </c>
       <c r="M11" t="n">
-        <v>263.784432896505</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9777655969272</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7949232748091</v>
+        <v>759.9390205422786</v>
       </c>
       <c r="N12" t="n">
-        <v>737.0411709760227</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O12" t="n">
-        <v>418.7328068038355</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>754.010185195104</v>
+        <v>411.5010085451522</v>
       </c>
       <c r="M14" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>418.6576975939414</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>737.0411709760227</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O15" t="n">
-        <v>738.8700324847033</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>737.0411709760227</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>335.4601674062451</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9495,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1004.802661823039</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10188,16 +10190,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>474.5964003263119</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>474.9442047819572</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>657.863239903264</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>558.94015193069</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11144,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>784.1890535317962</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>359.0914959522089</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>752.9777655969272</v>
+        <v>295.8699562443202</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11376,25 +11378,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>313.8695527643285</v>
       </c>
       <c r="L45" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>417.331758286442</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.0409969354273</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>396.2493826791302</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22604,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6172179931334369</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>140.2920973784901</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22753,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>382.4267342330638</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>331.1495128311533</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22844,7 +22846,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23024,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>311.3135405568807</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>83.96737552471893</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>278.7844872771664</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>402.7488832647057</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>309.5547578625414</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>131.3367521443641</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>85.29186649569277</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>19.72101580365691</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>21.11005397370351</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>18.44967133088741</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>40.74128133298262</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>126.4568155701074</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>19.21736803859375</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>18.44967133088807</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.2105945228213</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>155.6854428440909</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>324.5836817054443</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>310.4693100957534</v>
       </c>
       <c r="D44" t="n">
-        <v>35.08859862591902</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>137.8291987530666</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514568.9038360223</v>
+        <v>449246.4148179489</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514568.9038360222</v>
+        <v>449246.4148179488</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514568.9038360222</v>
+        <v>667938.1146142789</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514568.9038360224</v>
+        <v>667938.1146142789</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514568.9038360224</v>
+        <v>667938.1146142789</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514568.9038360222</v>
+        <v>745220.9907962136</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>745220.9907962135</v>
+        <v>745220.9907962136</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>745220.9907962135</v>
+        <v>745220.9907962136</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>745220.9907962136</v>
+        <v>745220.9907962135</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745220.9907962136</v>
+        <v>667938.1146142789</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514568.9038360222</v>
+        <v>667938.1146142789</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184341.1494669195</v>
+        <v>160941.581932267</v>
       </c>
       <c r="C2" t="n">
-        <v>184341.1494669194</v>
+        <v>160941.581932267</v>
       </c>
       <c r="D2" t="n">
-        <v>184341.1494669195</v>
+        <v>239280.4706607155</v>
       </c>
       <c r="E2" t="n">
-        <v>184341.1494669195</v>
+        <v>239280.4706607156</v>
       </c>
       <c r="F2" t="n">
-        <v>184341.1494669195</v>
+        <v>239280.4706607156</v>
       </c>
       <c r="G2" t="n">
-        <v>184341.1494669195</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="H2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="I2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
         <v>266964.4414902873</v>
@@ -26341,7 +26343,7 @@
         <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="M2" t="n">
         <v>266964.4414902873</v>
@@ -26350,10 +26352,10 @@
         <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
-        <v>266964.4414902874</v>
+        <v>239280.4706607155</v>
       </c>
       <c r="P2" t="n">
-        <v>184341.1494669195</v>
+        <v>239280.4706607156</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239846.908696991</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
-        <v>151925.6098158127</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187258.1248649466</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20292.2969599418</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="C4" t="n">
-        <v>20292.2969599418</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="D4" t="n">
-        <v>20292.2969599418</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="E4" t="n">
-        <v>20292.2969599418</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="F4" t="n">
-        <v>20292.2969599418</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="G4" t="n">
-        <v>20292.2969599418</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>29432.2870559115</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="P4" t="n">
-        <v>20292.2969599418</v>
+        <v>26369.81867680313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>77142.04707995884</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>43514.44707995885</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152940.1032699721</v>
+        <v>-110613.1822436084</v>
       </c>
       <c r="C6" t="n">
-        <v>86906.80542701879</v>
+        <v>75791.55117112883</v>
       </c>
       <c r="D6" t="n">
-        <v>86906.80542701881</v>
+        <v>-52837.30297782643</v>
       </c>
       <c r="E6" t="n">
-        <v>120534.4054270189</v>
+        <v>146631.6622592537</v>
       </c>
       <c r="F6" t="n">
-        <v>120534.4054270188</v>
+        <v>146631.6622592536</v>
       </c>
       <c r="G6" t="n">
-        <v>120534.4054270188</v>
+        <v>108070.761715804</v>
       </c>
       <c r="H6" t="n">
-        <v>7856.482430133459</v>
+        <v>159782.0922459461</v>
       </c>
       <c r="I6" t="n">
-        <v>159782.0922459462</v>
+        <v>159782.0922459461</v>
       </c>
       <c r="J6" t="n">
-        <v>-27476.03261900046</v>
+        <v>14248.42231112963</v>
       </c>
       <c r="K6" t="n">
         <v>159782.0922459461</v>
       </c>
       <c r="L6" t="n">
-        <v>159782.0922459462</v>
+        <v>24660.05970170443</v>
       </c>
       <c r="M6" t="n">
         <v>159782.0922459461</v>
@@ -26558,10 +26560,10 @@
         <v>159782.0922459461</v>
       </c>
       <c r="O6" t="n">
-        <v>159782.0922459462</v>
+        <v>146631.6622592536</v>
       </c>
       <c r="P6" t="n">
-        <v>120534.4054270188</v>
+        <v>146631.6622592537</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
-        <v>715.6981427624811</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.698142762481</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>107.6093973890905</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N2" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>642.4252448311862</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>686.7810460852089</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>715.6981427624811</v>
+        <v>719.2827369494532</v>
       </c>
       <c r="N8" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>514.8096390679939</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>905.9107921732252</v>
       </c>
       <c r="M11" t="n">
-        <v>226.3531699970732</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.6981427624811</v>
+        <v>736.8422400299506</v>
       </c>
       <c r="N12" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O12" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>715.6981427624811</v>
+        <v>373.1889661125293</v>
       </c>
       <c r="M14" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>715.6981427624811</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O15" t="n">
-        <v>715.6981427624811</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>715.6981427624811</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>312.7131291172666</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>981.7058813107108</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810418</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>523.1755511358807</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>761.6739668175666</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>320.779453519586</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>715.6981427624811</v>
+        <v>258.5903334098742</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>291.4703189309952</v>
       </c>
       <c r="L45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651410.5567115275</v>
+        <v>649257.3229071931</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2610015.581521715</v>
+        <v>2610015.581521716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7739255.098404761</v>
+        <v>7739255.09840476</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.6088837131874</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>142.7488995745743</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>169.6356194967397</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -898,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>80.02531409275997</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>89.72342716134042</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,22 +1135,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>407.052107331785</v>
       </c>
       <c r="D8" t="n">
-        <v>107.746154049969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>61.52485299794031</v>
       </c>
       <c r="X11" t="n">
-        <v>4.853915579224545</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>121.9815308269505</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1609,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>109.5049367443083</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1660,13 +1660,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>259.5040500283007</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>25.13775189891262</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.8251079850181</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>129.4018751502026</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.8619725885616</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>146.3034971231914</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>134.6953597735377</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>98.04804098138851</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>172.3890952258947</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3796,16 +3796,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,13 +3979,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>112.1624125910794</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>102.391657041176</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.71692503560836</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.49822504924753</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="C2" t="n">
-        <v>44.49822504924753</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4336,22 +4336,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,19 +4363,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1212.675578485385</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X2" t="n">
-        <v>800.9555796531324</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="Y2" t="n">
-        <v>395.6183096080227</v>
+        <v>1867.421837588626</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>323.6423572907505</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M3" t="n">
-        <v>323.6423572907505</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
-        <v>323.6423572907505</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.6159039117389</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C4" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882575</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340625</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238046</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>1399.725618125737</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D5" t="n">
-        <v>561.1048893067843</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E5" t="n">
-        <v>135.1279494546419</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
         <v>44.49822504924753</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1218.160237973755</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4609,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>1819.573982417267</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.872639149549</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>2177.872639149549</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4783,19 +4783,19 @@
         <v>1786.02567807839</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.124948091691</v>
+        <v>1374.86193329881</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.290449051318</v>
+        <v>951.56931248381</v>
       </c>
       <c r="E8" t="n">
-        <v>824.3135091991753</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F8" t="n">
-        <v>824.3135091991753</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G8" t="n">
-        <v>419.9744467886239</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H8" t="n">
         <v>122.1060682626588</v>
@@ -4804,28 +4804,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>1165.320963798525</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L8" t="n">
-        <v>2094.946011417801</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="M8" t="n">
-        <v>2807.03592099776</v>
+        <v>1257.143048124974</v>
       </c>
       <c r="N8" t="n">
-        <v>2807.03592099776</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O8" t="n">
-        <v>3652.180571148572</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P8" t="n">
-        <v>4360.4598503065</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q8" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R8" t="n">
         <v>4360.4598503065</v>
@@ -4880,28 +4880,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K9" t="n">
-        <v>87.20919700613</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="L9" t="n">
-        <v>87.20919700613</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="M9" t="n">
-        <v>87.20919700613</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="N9" t="n">
-        <v>1006.415549575168</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O9" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P9" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q9" t="n">
         <v>1895.89682758664</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311.2882625557938</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C10" t="n">
-        <v>139.3156994347098</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D10" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E10" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F10" t="n">
         <v>87.20919700613</v>
@@ -4986,28 +4986,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T10" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U10" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V10" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W10" t="n">
-        <v>970.3608961323123</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X10" t="n">
-        <v>727.7969995781174</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.4542312678594</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2192.842731881123</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C11" t="n">
-        <v>1765.942001894423</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.649381079424</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E11" t="n">
-        <v>916.6724412272812</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F11" t="n">
-        <v>491.5482594166814</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G11" t="n">
-        <v>87.20919700613</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H11" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
         <v>87.20919700613</v>
@@ -5044,7 +5044,7 @@
         <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>449.8126558230255</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
         <v>1346.664340074519</v>
@@ -5080,13 +5080,13 @@
         <v>3419.322660946936</v>
       </c>
       <c r="W11" t="n">
-        <v>3022.931311247283</v>
+        <v>3357.1763447874</v>
       </c>
       <c r="X11" t="n">
-        <v>3018.028366217763</v>
+        <v>2945.456345955147</v>
       </c>
       <c r="Y11" t="n">
-        <v>2612.691096172653</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K12" t="n">
-        <v>87.20919700613</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="L12" t="n">
-        <v>87.20919700613</v>
+        <v>839.9102896105946</v>
       </c>
       <c r="M12" t="n">
-        <v>816.6830146357811</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="N12" t="n">
         <v>1895.89682758664</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>311.2882625557938</v>
+        <v>548.4928445806862</v>
       </c>
       <c r="C13" t="n">
-        <v>139.3156994347098</v>
+        <v>425.279177078716</v>
       </c>
       <c r="D13" t="n">
-        <v>87.20919700613</v>
+        <v>425.279177078716</v>
       </c>
       <c r="E13" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
         <v>87.20919700613</v>
@@ -5223,28 +5223,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2050.448563625566</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T13" t="n">
-        <v>1807.109215851466</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U13" t="n">
-        <v>1526.92476735177</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V13" t="n">
-        <v>1245.213299959799</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W13" t="n">
-        <v>970.3608961323123</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X13" t="n">
-        <v>727.7969995781174</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y13" t="n">
-        <v>501.4542312678594</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1786.02567807839</v>
+        <v>2102.315360848617</v>
       </c>
       <c r="C14" t="n">
-        <v>1786.02567807839</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="D14" t="n">
         <v>1675.414630861917</v>
@@ -5284,19 +5284,19 @@
         <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1534.778040249929</v>
+        <v>1374.699383006876</v>
       </c>
       <c r="M14" t="n">
-        <v>2539.064141668987</v>
+        <v>1374.699383006876</v>
       </c>
       <c r="N14" t="n">
-        <v>3515.315200155688</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O14" t="n">
-        <v>4360.4598503065</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P14" t="n">
-        <v>4360.4598503065</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q14" t="n">
         <v>4360.4598503065</v>
@@ -5308,22 +5308,22 @@
         <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4035.166985224274</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="U14" t="n">
-        <v>3776.812075820686</v>
+        <v>3997.737646776052</v>
       </c>
       <c r="V14" t="n">
-        <v>3419.322660946936</v>
+        <v>3735.612343717163</v>
       </c>
       <c r="W14" t="n">
-        <v>3022.931311247283</v>
+        <v>3339.220994017509</v>
       </c>
       <c r="X14" t="n">
-        <v>2611.21131241503</v>
+        <v>2927.500995185257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.874042369921</v>
+        <v>2522.163725140147</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K15" t="n">
-        <v>87.20919700613</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="L15" t="n">
-        <v>924.0080050890361</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="M15" t="n">
-        <v>924.0080050890361</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="N15" t="n">
-        <v>1006.415549575168</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.89682758664</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="P15" t="n">
-        <v>1895.89682758664</v>
+        <v>1401.338483574879</v>
       </c>
       <c r="Q15" t="n">
-        <v>1895.89682758664</v>
+        <v>1865.483960437659</v>
       </c>
       <c r="R15" t="n">
         <v>1895.89682758664</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1051.985719623282</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>880.0131565021975</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>716.6963836289682</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>550.4881777818217</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>378.6264035563821</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>212.3694338506143</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
         <v>87.20919700613</v>
@@ -5463,25 +5463,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>1985.910757027287</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>1711.0583531998</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>1468.494456645605</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>1242.151688335347</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5521,19 +5521,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5542,25 +5542,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.9055752292884</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>677.9330121082044</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>514.6162392349751</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.978208805807</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1266.414312251612</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1040.071543941354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5834,22 +5834,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6077,16 +6077,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.1502575345799</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>806.1502575345799</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>642.8334846613506</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>642.8334846613506</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6189,10 +6189,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1032.493025844838</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.1502575345799</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6311,13 +6311,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1757.664925652886</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1482.812521825399</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1482.812521825399</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6542,28 +6542,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4920.315746753155</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4676.976398979054</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4676.976398979054</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4676.976398979054</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6788,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7022,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7250,22 +7250,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2197.745676910643</v>
+        <v>2401.870002355728</v>
       </c>
       <c r="C41" t="n">
-        <v>2098.707251676917</v>
+        <v>1974.969272369028</v>
       </c>
       <c r="D41" t="n">
-        <v>1675.414630861917</v>
+        <v>1551.676651554028</v>
       </c>
       <c r="E41" t="n">
-        <v>1249.437691009775</v>
+        <v>1125.699711701885</v>
       </c>
       <c r="F41" t="n">
-        <v>824.3135091991753</v>
+        <v>700.5755298912857</v>
       </c>
       <c r="G41" t="n">
-        <v>419.9744467886239</v>
+        <v>296.2364674807343</v>
       </c>
       <c r="H41" t="n">
         <v>122.1060682626588</v>
@@ -7411,28 +7411,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>605.152992630652</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="L41" t="n">
-        <v>1534.778040249929</v>
+        <v>1379.437703442302</v>
       </c>
       <c r="M41" t="n">
-        <v>2539.064141668987</v>
+        <v>2383.72380486136</v>
       </c>
       <c r="N41" t="n">
-        <v>3515.315200155688</v>
+        <v>3359.974863348061</v>
       </c>
       <c r="O41" t="n">
-        <v>4360.4598503065</v>
+        <v>3534.62423626667</v>
       </c>
       <c r="P41" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="Q41" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R41" t="n">
         <v>4360.4598503065</v>
@@ -7444,19 +7444,19 @@
         <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>3776.812075820686</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V41" t="n">
-        <v>3419.322660946936</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="W41" t="n">
-        <v>3022.931311247283</v>
+        <v>3638.77563552462</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.931311247283</v>
+        <v>3227.055636692367</v>
       </c>
       <c r="Y41" t="n">
-        <v>2617.594041202173</v>
+        <v>2821.718366647258</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>1514.492931657376</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>1895.89682758664</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N42" t="n">
-        <v>1895.89682758664</v>
+        <v>1166.423009956989</v>
       </c>
       <c r="O42" t="n">
-        <v>1895.89682758664</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P42" t="n">
         <v>1895.89682758664</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>311.2882625557938</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>139.3156994347098</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
-        <v>87.20919700613</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
         <v>87.20919700613</v>
@@ -7593,28 +7593,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>970.3608961323123</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>727.7969995781174</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>501.4542312678594</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1786.02567807839</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C44" t="n">
-        <v>1672.730311824775</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D44" t="n">
-        <v>1249.437691009775</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E44" t="n">
-        <v>1249.437691009775</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>824.3135091991753</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>419.9744467886239</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>122.1060682626588</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K44" t="n">
-        <v>1165.320963798525</v>
+        <v>327.5180005056969</v>
       </c>
       <c r="L44" t="n">
-        <v>2094.946011417801</v>
+        <v>1257.143048124974</v>
       </c>
       <c r="M44" t="n">
-        <v>2094.946011417801</v>
+        <v>1257.143048124974</v>
       </c>
       <c r="N44" t="n">
-        <v>2350.950441493577</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O44" t="n">
-        <v>3196.095091644389</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P44" t="n">
-        <v>3904.374370802317</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
         <v>4360.4598503065</v>
@@ -7687,13 +7687,13 @@
         <v>3419.322660946936</v>
       </c>
       <c r="W44" t="n">
-        <v>3022.931311247283</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="X44" t="n">
-        <v>2611.21131241503</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y44" t="n">
-        <v>2205.874042369921</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>375.7648127478153</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L45" t="n">
-        <v>375.7648127478153</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M45" t="n">
-        <v>1431.75135072386</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N45" t="n">
-        <v>1431.75135072386</v>
+        <v>87.20919700613</v>
       </c>
       <c r="O45" t="n">
-        <v>1431.75135072386</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P45" t="n">
         <v>1431.75135072386</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>867.852133775252</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C46" t="n">
-        <v>695.879570654168</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D46" t="n">
-        <v>695.879570654168</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E46" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
         <v>87.20919700613</v>
@@ -7830,28 +7830,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T46" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U46" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V46" t="n">
-        <v>1526.92476735177</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W46" t="n">
-        <v>1526.92476735177</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X46" t="n">
-        <v>1284.360870797576</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y46" t="n">
-        <v>1058.018102487318</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>97.94106200967602</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>460.2559062950365</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>102.4815180266284</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>756.713999848885</v>
+        <v>496.4469630442243</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8473,10 +8473,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>776.6671919541075</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8692,10 +8692,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.2228346058481</v>
+        <v>221.487169984132</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>178.8479383043439</v>
       </c>
       <c r="M12" t="n">
-        <v>759.9390205422786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>1111.457990790167</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8932,10 +8932,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>411.5010085451522</v>
+        <v>249.8053951683313</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>54.39298722139783</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9482,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>279.576101048122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>398.9108788555778</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9959,16 +9959,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10120,16 +10120,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10190,19 +10190,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>50.71380249601871</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10670,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>558.94015193069</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>213.8044673546187</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>36.58209233954867</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>278.5007659458871</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,7 +11308,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>295.8699562443202</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>313.8695527643285</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.0409969354273</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>279.8828231122586</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22603,19 +22603,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6172179931334369</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -22716,7 +22716,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22725,7 +22725,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>342.6064085940729</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>331.1495128311533</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22849,7 +22849,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.57961535504785</v>
       </c>
       <c r="D8" t="n">
-        <v>311.3135405568807</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23184,13 +23184,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>330.9025832047163</v>
       </c>
       <c r="X11" t="n">
-        <v>402.7488832647057</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.27130666292263</v>
       </c>
       <c r="D13" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>309.5547578625414</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>94.41047069671231</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>117.2205539080145</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>19.72101580365691</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>40.74128133298262</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.21736803859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>22.1301998828651</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>106.2105945228213</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>324.5836817054443</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>122.5005995148108</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>310.4693100957534</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>305.2111418027542</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>137.8291987530666</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667938.1146142789</v>
+        <v>667938.1146142788</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>667938.1146142789</v>
+        <v>667938.1146142788</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>745220.9907962136</v>
+        <v>745220.9907962135</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>745220.9907962136</v>
+        <v>745220.9907962135</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>745220.9907962136</v>
+        <v>745220.9907962135</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>745220.9907962136</v>
+        <v>745220.9907962135</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667938.1146142789</v>
+        <v>667938.1146142788</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>667938.1146142789</v>
+        <v>667938.1146142788</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>239280.4706607155</v>
       </c>
       <c r="E2" t="n">
-        <v>239280.4706607156</v>
+        <v>239280.4706607155</v>
       </c>
       <c r="F2" t="n">
-        <v>239280.4706607156</v>
+        <v>239280.4706607155</v>
       </c>
       <c r="G2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="H2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="I2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902872</v>
       </c>
       <c r="K2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="L2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="M2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="O2" t="n">
         <v>239280.4706607155</v>
       </c>
       <c r="P2" t="n">
-        <v>239280.4706607156</v>
+        <v>239280.4706607155</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>17703.77972371005</v>
       </c>
       <c r="D4" t="n">
-        <v>26369.81867680313</v>
+        <v>26369.81867680314</v>
       </c>
       <c r="E4" t="n">
         <v>26369.81867680313</v>
@@ -26447,7 +26447,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
         <v>29432.2870559115</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110613.1822436084</v>
+        <v>-111222.2279560981</v>
       </c>
       <c r="C6" t="n">
-        <v>75791.55117112883</v>
+        <v>75182.50545863915</v>
       </c>
       <c r="D6" t="n">
-        <v>-52837.30297782643</v>
+        <v>-53034.03874964005</v>
       </c>
       <c r="E6" t="n">
-        <v>146631.6622592537</v>
+        <v>146434.92648744</v>
       </c>
       <c r="F6" t="n">
-        <v>146631.6622592536</v>
+        <v>146434.92648744</v>
       </c>
       <c r="G6" t="n">
-        <v>108070.761715804</v>
+        <v>108019.7310536197</v>
       </c>
       <c r="H6" t="n">
-        <v>159782.0922459461</v>
+        <v>159731.0615837619</v>
       </c>
       <c r="I6" t="n">
-        <v>159782.0922459461</v>
+        <v>159731.0615837618</v>
       </c>
       <c r="J6" t="n">
-        <v>14248.42231112963</v>
+        <v>14197.39164894521</v>
       </c>
       <c r="K6" t="n">
-        <v>159782.0922459461</v>
+        <v>159731.0615837619</v>
       </c>
       <c r="L6" t="n">
-        <v>24660.05970170443</v>
+        <v>24609.02903952019</v>
       </c>
       <c r="M6" t="n">
-        <v>159782.0922459461</v>
+        <v>159731.0615837619</v>
       </c>
       <c r="N6" t="n">
-        <v>159782.0922459461</v>
+        <v>159731.0615837619</v>
       </c>
       <c r="O6" t="n">
-        <v>146631.6622592536</v>
+        <v>146434.92648744</v>
       </c>
       <c r="P6" t="n">
-        <v>146631.6622592537</v>
+        <v>146434.92648744</v>
       </c>
     </row>
   </sheetData>
@@ -34704,25 +34704,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.06155854104185</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>719.2827369494532</v>
+        <v>459.0157001447924</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35193,10 +35193,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>905.9107921732252</v>
+        <v>183.175127551509</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>156.3328515901144</v>
       </c>
       <c r="M12" t="n">
-        <v>736.8422400299506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>1090.114962576625</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>373.1889661125293</v>
+        <v>211.4933527357084</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.72006782725369</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>361.4796159561459</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>27.96676420704021</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>523.1755511358807</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>176.4135079985946</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>13.41020261732645</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>242.7361651510777</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>258.5903334098742</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>291.4703189309952</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
